--- a/data/5_results/no_prompt/result_no_prompt_2.xlsx
+++ b/data/5_results/no_prompt/result_no_prompt_2.xlsx
@@ -507,22 +507,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,694</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,568</t>
+          <t>0,833</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,532</t>
+          <t>0,758</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,455</t>
+          <t>0,990</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -553,22 +553,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,491</t>
+          <t>0,743</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,565</t>
+          <t>0,929</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,525</t>
+          <t>0,825</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,473</t>
+          <t>0,947</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -599,22 +599,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,489</t>
+          <t>0,639</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,548</t>
+          <t>0,742</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,517</t>
+          <t>0,687</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,418</t>
+          <t>0,971</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -645,22 +645,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,743</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,565</t>
+          <t>0,897</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,531</t>
+          <t>0,812</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,473</t>
+          <t>0,982</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -691,22 +691,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,273</t>
+          <t>0,281</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,281</t>
+          <t>0,290</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,277</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,164</t>
+          <t>0,991</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -737,22 +737,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,294</t>
+          <t>0,312</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,303</t>
+          <t>0,323</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,299</t>
+          <t>0,317</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0,182</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -783,22 +783,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,106</t>
+          <t>0,185</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,152</t>
+          <t>0,385</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,125</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>0,956</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -829,22 +829,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,213</t>
+          <t>0,588</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,208</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,211</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0,182</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -875,22 +875,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,188</t>
+          <t>0,375</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,225</t>
+          <t>0,562</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,205</t>
+          <t>0,450</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,164</t>
+          <t>0,913</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -921,22 +921,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,137</t>
+          <t>0,583</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,140</t>
+          <t>0,636</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,139</t>
+          <t>0,609</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,127</t>
+          <t>0,898</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -967,22 +967,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,137</t>
+          <t>0,583</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,140</t>
+          <t>0,636</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,139</t>
+          <t>0,609</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,127</t>
+          <t>0,918</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1013,22 +1013,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,140</t>
+          <t>0,583</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,140</t>
+          <t>0,583</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,140</t>
+          <t>0,583</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,127</t>
+          <t>0,921</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1059,22 +1059,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,120</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,122</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,121</t>
+          <t>0,522</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,109</t>
+          <t>0,858</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1105,22 +1105,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,234</t>
+          <t>0,478</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,256</t>
+          <t>0,579</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,244</t>
+          <t>0,524</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1151,22 +1151,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,180</t>
+          <t>0,375</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,225</t>
+          <t>0,643</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,474</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,164</t>
+          <t>0,971</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1197,22 +1197,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,176</t>
+          <t>0,474</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,692</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,188</t>
+          <t>0,562</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,164</t>
+          <t>0,944</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1243,22 +1243,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,077</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,082</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0,079</t>
+          <t>0,471</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,073</t>
+          <t>0,949</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1289,22 +1289,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,195</t>
+          <t>0,727</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,172</t>
+          <t>0,485</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,145</t>
+          <t>0,876</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,195</t>
+          <t>0,727</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,172</t>
+          <t>0,485</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,145</t>
+          <t>0,876</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1381,22 +1381,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,132</t>
+          <t>0,700</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,135</t>
+          <t>0,778</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,133</t>
+          <t>0,737</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,127</t>
+          <t>0,937</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1427,22 +1427,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,062</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,058</t>
+          <t>0,300</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,060</t>
+          <t>0,375</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0,055</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1473,22 +1473,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,887</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1519,22 +1519,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,022</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0,020</t>
+          <t>0,091</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,111</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,018</t>
+          <t>0,707</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1565,22 +1565,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,865</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1611,22 +1611,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,154</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,041</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1703,22 +1703,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,047</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,042</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1749,22 +1749,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,041</t>
+          <t>0,105</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,053</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,046</t>
+          <t>0,148</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1795,22 +1795,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,073</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0,083</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0,078</t>
+          <t>0,533</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0,073</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1887,22 +1887,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,039</t>
+          <t>0,133</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,048</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,043</t>
+          <t>0,190</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1933,22 +1933,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2071,22 +2071,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,102</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,094</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0,098</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2117,22 +2117,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,020</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0,019</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0,019</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0,018</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2255,22 +2255,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2301,22 +2301,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,018</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0,019</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0,018</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0,018</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2393,22 +2393,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,475</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3122,7 +3122,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,379</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4360,22 +4360,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,094</t>
+          <t>0,290</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,079</t>
+          <t>0,735</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,228</t>
+          <t>0,467</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,187</t>
+          <t>0,896</t>
         </is>
       </c>
     </row>

--- a/data/5_results/no_prompt/result_no_prompt_2.xlsx
+++ b/data/5_results/no_prompt/result_no_prompt_2.xlsx
@@ -507,42 +507,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,694</t>
+          <t>0,700</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,833</t>
+          <t>0,745</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,758</t>
+          <t>0,722</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,990</t>
+          <t>0,988</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>30,000</t>
+          <t>47,000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -553,42 +553,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,743</t>
+          <t>0,740</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,929</t>
+          <t>0,804</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,825</t>
+          <t>0,771</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,947</t>
+          <t>0,964</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>28,000</t>
+          <t>46,000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I3" t="n">
+        <v>13</v>
+      </c>
+      <c r="J3" t="n">
         <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -599,42 +599,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,639</t>
+          <t>0,673</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,742</t>
+          <t>0,745</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,687</t>
+          <t>0,707</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,971</t>
+          <t>0,977</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>31,000</t>
+          <t>47,000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -645,42 +645,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,743</t>
+          <t>0,769</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,897</t>
+          <t>0,870</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,812</t>
+          <t>0,816</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,982</t>
+          <t>0,977</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>29,000</t>
+          <t>46,000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -691,42 +691,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,281</t>
+          <t>0,340</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,290</t>
+          <t>0,283</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,309</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,991</t>
+          <t>0,995</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>31,000</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I6" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J6" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -737,17 +737,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,312</t>
+          <t>0,360</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,323</t>
+          <t>0,305</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,317</t>
+          <t>0,330</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>31,000</t>
+          <t>59,000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I7" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J7" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -783,42 +783,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,185</t>
+          <t>0,034</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,385</t>
+          <t>0,048</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,040</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,956</t>
+          <t>0,933</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13,000</t>
+          <t>21,000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -829,17 +829,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,588</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,556</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,471</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>18,000</t>
+          <t>27,000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -858,13 +858,13 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -875,42 +875,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,375</t>
+          <t>0,519</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,562</t>
+          <t>0,636</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,450</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,913</t>
+          <t>0,923</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>16,000</t>
+          <t>22,000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -921,42 +921,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,583</t>
+          <t>0,417</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,636</t>
+          <t>0,263</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,609</t>
+          <t>0,323</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,898</t>
+          <t>0,956</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
         <v>7</v>
       </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -967,42 +967,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,583</t>
+          <t>0,417</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,636</t>
+          <t>0,263</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,609</t>
+          <t>0,323</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,918</t>
+          <t>0,955</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
         <v>7</v>
       </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1013,27 +1013,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,583</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,583</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,583</t>
+          <t>0,267</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,921</t>
+          <t>0,967</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>12,000</t>
+          <t>18,000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -1059,42 +1059,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,545</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,522</t>
+          <t>0,267</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,858</t>
+          <t>0,965</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>18,000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -1105,17 +1105,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,478</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,579</t>
+          <t>0,381</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,524</t>
+          <t>0,410</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>19,000</t>
+          <t>21,000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -1151,42 +1151,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,375</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,643</t>
+          <t>0,632</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,474</t>
+          <t>0,522</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,971</t>
+          <t>0,975</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>14,000</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1197,27 +1197,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,474</t>
+          <t>0,350</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,692</t>
+          <t>0,350</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,562</t>
+          <t>0,350</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,944</t>
+          <t>0,978</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>13,000</t>
+          <t>20,000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1243,42 +1243,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,111</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,077</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0,471</t>
+          <t>0,091</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,949</t>
+          <t>0,824</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>13,000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -1289,42 +1289,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,364</t>
+          <t>0,458</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>0,611</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0,524</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>0,727</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0,485</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0,876</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>18,000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1335,42 +1335,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,364</t>
+          <t>0,417</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,727</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,485</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,876</t>
+          <t>0,552</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>16,000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
         <v>14</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1381,42 +1381,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,700</t>
+          <t>0,111</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,778</t>
+          <t>0,083</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,737</t>
+          <t>0,095</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,937</t>
+          <t>0,858</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>12,000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1427,42 +1427,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,471</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,300</t>
+          <t>0,421</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,375</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,971</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1473,39 +1473,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,887</t>
+          <t>0,577</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
         <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
@@ -1519,27 +1519,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,267</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0,111</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,707</t>
+          <t>0,891</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>17,000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -1565,42 +1565,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,865</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1611,42 +1611,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,300</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,214</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,967</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1657,42 +1657,42 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1703,17 +1703,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1749,17 +1749,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,105</t>
+          <t>0,154</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,148</t>
+          <t>0,174</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1795,22 +1795,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,364</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0,533</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0,364</t>
+          <t>0,883</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1820,17 +1820,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="n">
         <v>4</v>
-      </c>
-      <c r="I30" t="n">
-        <v>7</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1861,12 +1861,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,133</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,190</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1907,22 +1907,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>2</v>
       </c>
-      <c r="I32" t="n">
-        <v>13</v>
-      </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1933,22 +1933,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>0,833</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1,000</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,909</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,833</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1958,14 +1958,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -2025,39 +2025,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>5</v>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,714</t>
+          <t>0,467</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,455</t>
+          <t>0,412</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0,556</t>
+          <t>0,437</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>17,000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2100,13 +2100,13 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J36" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -2163,42 +2163,42 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,10</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -2224,27 +2224,27 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,836</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2255,17 +2255,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2275,22 +2275,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" t="n">
         <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,29 +2311,29 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,727</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2372,14 +2372,14 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
         <v>2</v>
@@ -2393,17 +2393,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0,444</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
         <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -2459,12 +2459,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -2500,27 +2500,27 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -2531,42 +2531,42 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2592,27 +2592,27 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2638,79 +2638,73 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TADs</t>
+          <t>tads</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2741,12 +2735,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2756,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2792,7 +2786,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2808,53 +2802,47 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Enameloplasty</t>
+          <t>enameloplasty</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2880,27 +2868,27 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0,475</t>
+          <t>0,201</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2958,53 +2946,47 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Extractions</t>
+          <t>extractions</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -3040,7 +3022,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -3081,12 +3063,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -3096,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3122,27 +3104,27 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2,000</t>
-        </is>
-      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
         <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -3173,12 +3155,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -3188,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3219,12 +3201,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -3234,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -3260,7 +3242,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0,379</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3270,14 +3252,14 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
         <v>3</v>
@@ -3306,12 +3288,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3323,56 +3305,62 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>lower banding</t>
+          <t>Lower Banding</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -3408,7 +3396,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -3476,53 +3464,47 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Anterior Bite Turbos</t>
+          <t>anterior bite turbos</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3580,53 +3562,47 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Upper Arch Reverse Curve of Spee</t>
+          <t>upper arch reverse curve of spee</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3761,7 +3737,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3776,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -3990,53 +3966,47 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Lower Arch Accentuated Curve of Spee</t>
+          <t>lower arch accentuated curve of spee</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -4360,22 +4330,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,290</t>
+          <t>0,227</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,735</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,467</t>
+          <t>0,409</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,896</t>
+          <t>0,881</t>
         </is>
       </c>
     </row>
@@ -4443,7 +4413,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -4453,7 +4423,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">

--- a/data/5_results/no_prompt/result_no_prompt_2.xlsx
+++ b/data/5_results/no_prompt/result_no_prompt_2.xlsx
@@ -507,42 +507,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,700</t>
+          <t>0,638</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,745</t>
+          <t>0,682</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,722</t>
+          <t>0,659</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,988</t>
+          <t>0,993</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>47,000</t>
+          <t>44,000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -553,42 +553,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,740</t>
+          <t>0,553</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,804</t>
+          <t>0,605</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,771</t>
+          <t>0,578</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,964</t>
+          <t>0,979</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>46,000</t>
+          <t>43,000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J3" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -599,39 +599,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,673</t>
+          <t>0,660</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,745</t>
+          <t>0,721</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,707</t>
+          <t>0,689</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,977</t>
+          <t>0,991</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>47,000</t>
+          <t>43,000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" t="n">
         <v>12</v>
@@ -645,42 +645,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,769</t>
+          <t>0,574</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,870</t>
+          <t>0,643</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,816</t>
+          <t>0,607</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,977</t>
+          <t>0,978</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>46,000</t>
+          <t>42,000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -691,42 +691,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,340</t>
+          <t>0,308</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,283</t>
+          <t>0,267</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,309</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,995</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>45,000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I6" t="n">
+        <v>27</v>
+      </c>
+      <c r="J6" t="n">
         <v>33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -737,42 +737,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,360</t>
+          <t>0,282</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,305</t>
+          <t>0,262</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,330</t>
+          <t>0,272</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,996</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>59,000</t>
+          <t>42,000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I7" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J7" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -783,39 +783,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,034</t>
+          <t>0,146</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,048</t>
+          <t>0,231</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,040</t>
+          <t>0,179</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,933</t>
+          <t>0,957</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>21,000</t>
+          <t>26,000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J8" t="n">
         <v>20</v>
@@ -829,42 +829,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,273</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,444</t>
+          <t>0,081</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,471</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>27,000</t>
+          <t>37,000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -875,27 +875,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,519</t>
+          <t>0,432</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,636</t>
+          <t>0,696</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,533</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,923</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>22,000</t>
+          <t>23,000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -904,13 +904,13 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -921,42 +921,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,417</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,263</t>
+          <t>0,385</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,323</t>
+          <t>0,233</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,956</t>
+          <t>0,907</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>19,000</t>
+          <t>13,000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J11" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -967,42 +967,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,417</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,263</t>
+          <t>0,357</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,323</t>
+          <t>0,227</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,955</t>
+          <t>0,972</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>19,000</t>
+          <t>14,000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1013,42 +1013,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,267</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,267</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,967</t>
+          <t>0,924</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>18,000</t>
+          <t>14,000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J13" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1059,42 +1059,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,267</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,533</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,267</t>
+          <t>0,356</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,965</t>
+          <t>0,974</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>18,000</t>
+          <t>15,000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1105,42 +1105,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,444</t>
+          <t>0,560</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,381</t>
+          <t>0,609</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,410</t>
+          <t>0,583</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,977</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>21,000</t>
+          <t>23,000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1151,39 +1151,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,444</t>
+          <t>0,432</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,632</t>
+          <t>0,696</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,522</t>
+          <t>0,533</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,975</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>19,000</t>
+          <t>23,000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J16" t="n">
         <v>7</v>
@@ -1197,42 +1197,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,350</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,350</t>
+          <t>0,273</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,350</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,978</t>
+          <t>0,952</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>20,000</t>
+          <t>22,000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1243,42 +1243,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,111</t>
+          <t>0,267</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,077</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>0,421</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,824</t>
+          <t>0,267</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>13,000</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1289,42 +1289,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,458</t>
+          <t>0,684</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,611</t>
+          <t>0,619</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,524</t>
+          <t>0,650</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,727</t>
+          <t>0,899</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>18,000</t>
+          <t>21,000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1335,42 +1335,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,417</t>
+          <t>0,684</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,619</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,650</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,552</t>
+          <t>0,899</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>16,000</t>
+          <t>21,000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I20" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1381,42 +1381,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,111</t>
+          <t>0,367</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,083</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,095</t>
+          <t>0,537</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,858</t>
+          <t>0,367</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>12,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1427,42 +1427,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,471</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,421</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,444</t>
+          <t>0,133</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0,971</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>19,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1473,42 +1473,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0,545</t>
+          <t>0,320</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,577</t>
+          <t>0,831</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>16,000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1519,42 +1519,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,267</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,891</t>
+          <t>0,927</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>17,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7</v>
+      </c>
+      <c r="J24" t="n">
         <v>4</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -1565,17 +1565,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,778</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,438</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,560</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>16,000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H25" t="n">
+        <v>7</v>
+      </c>
+      <c r="I25" t="n">
         <v>2</v>
       </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1611,42 +1611,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,091</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,300</t>
+          <t>0,182</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,214</t>
+          <t>0,121</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0,967</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -1657,42 +1657,42 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,769</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1703,17 +1703,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,077</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,118</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1723,22 +1723,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1749,17 +1749,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,174</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J29" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1810,17 +1810,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0,883</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1830,7 +1830,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1861,12 +1861,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1907,22 +1907,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J32" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,833</t>
+          <t>0,733</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1943,29 +1943,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0,909</t>
+          <t>0,846</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0,833</t>
+          <t>0,733</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>7</v>
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2040,27 +2040,27 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,467</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,412</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0,437</t>
+          <t>0,182</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2091,22 +2091,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>17,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J36" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,182</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,133</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,154</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>15,000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -2163,42 +2163,42 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>0,200</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0,200</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0,200</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0,125</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0,222</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0,125</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -2209,22 +2209,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0,836</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2255,42 +2255,42 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,936</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -2301,22 +2301,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0,727</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2330,13 +2330,13 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>3</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2367,22 +2367,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2393,42 +2393,42 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,154</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,931</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2459,12 +2459,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2531,42 +2531,42 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>0,333</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0,667</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0,444</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>0,250</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0,400</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0,250</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2664,47 +2664,53 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>tads</t>
+          <t>TADs</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2735,12 +2741,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2750,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -2802,47 +2808,53 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>enameloplasty</t>
+          <t>Enameloplasty</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2868,79 +2880,73 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0,201</t>
+          <t>0,118</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Unilateral Posterior Crossbite</t>
+          <t>unilateral posterior crossbite</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2971,12 +2977,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2986,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -2997,39 +3003,39 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3063,12 +3069,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -3078,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -3109,12 +3115,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -3124,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3155,12 +3161,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -3170,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -3242,7 +3248,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,220</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3259,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>3</v>
@@ -3268,145 +3274,151 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>closed spring</t>
+          <t>Closed Spring</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Lower Banding</t>
+          <t>lower banding</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>patient id.1</t>
+          <t>Patient ID.1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -3464,47 +3476,53 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>anterior bite turbos</t>
+          <t>Anterior Bite Turbos</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -3582,17 +3600,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -3602,59 +3620,53 @@
         <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Maxillary Expander</t>
+          <t>maxillary expander</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3712,47 +3724,53 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>anterior crossbite</t>
+          <t>Anterior Crossbite</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -3966,47 +3984,53 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>lower arch accentuated curve of spee</t>
+          <t>Lower Arch Accentuated Curve of Spee</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -4330,22 +4354,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,227</t>
+          <t>0,238</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,585</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,409</t>
+          <t>0,389</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,881</t>
+          <t>0,830</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4437,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -4423,7 +4447,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">

--- a/data/5_results/no_prompt/result_no_prompt_2.xlsx
+++ b/data/5_results/no_prompt/result_no_prompt_2.xlsx
@@ -507,22 +507,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,638</t>
+          <t>0,741</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,682</t>
+          <t>0,977</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,659</t>
+          <t>0,843</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,993</t>
+          <t>0,988</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -553,22 +553,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,553</t>
+          <t>0,655</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,605</t>
+          <t>0,884</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,578</t>
+          <t>0,752</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,979</t>
+          <t>0,878</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -599,22 +599,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,660</t>
+          <t>0,702</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,721</t>
+          <t>0,930</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,689</t>
+          <t>0,800</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,991</t>
+          <t>0,986</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -645,22 +645,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,574</t>
+          <t>0,649</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,643</t>
+          <t>0,881</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,607</t>
+          <t>0,747</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,978</t>
+          <t>0,922</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I5" t="n">
         <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -691,17 +691,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,308</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,267</t>
+          <t>0,490</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,457</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -711,22 +711,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>45,000</t>
+          <t>49,000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I6" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J6" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -737,42 +737,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,282</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,262</t>
+          <t>0,458</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,272</t>
+          <t>0,427</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0,996</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>42,000</t>
+          <t>48,000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I7" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J7" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -783,7 +783,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,146</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,179</t>
+          <t>0,176</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,957</t>
+          <t>0,969</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -815,7 +815,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" t="n">
         <v>20</v>
@@ -829,22 +829,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,273</t>
+          <t>0,621</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,081</t>
+          <t>0,486</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,125</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,630</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -858,13 +858,13 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -875,7 +875,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,432</t>
+          <t>0,471</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,533</t>
+          <t>0,561</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -907,7 +907,7 @@
         <v>16</v>
       </c>
       <c r="I10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J10" t="n">
         <v>7</v>
@@ -921,22 +921,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,273</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,385</t>
+          <t>0,462</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,233</t>
+          <t>0,343</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,907</t>
+          <t>0,910</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -967,22 +967,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,273</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,357</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,227</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,972</t>
+          <t>0,973</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1013,22 +1013,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,267</t>
+          <t>0,409</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,643</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,364</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,924</t>
+          <t>0,969</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1059,22 +1059,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,267</t>
+          <t>0,409</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,533</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,356</t>
+          <t>0,486</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,974</t>
+          <t>0,971</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1088,13 +1088,13 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I14" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1105,42 +1105,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,560</t>
+          <t>0,515</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,609</t>
+          <t>0,630</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,583</t>
+          <t>0,567</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0,977</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>23,000</t>
+          <t>27,000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,432</t>
+          <t>0,471</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,533</t>
+          <t>0,561</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1183,7 +1183,7 @@
         <v>16</v>
       </c>
       <c r="I16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J16" t="n">
         <v>7</v>
@@ -1197,22 +1197,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,545</t>
+          <t>0,647</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,273</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,364</t>
+          <t>0,564</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,952</t>
+          <t>0,974</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="H17" t="n">
+        <v>11</v>
+      </c>
+      <c r="I17" t="n">
         <v>6</v>
       </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
       <c r="J17" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1243,22 +1243,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,267</t>
+          <t>0,467</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,875</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0,421</t>
+          <t>0,609</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,267</t>
+          <t>0,663</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="H18" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" t="n">
         <v>8</v>
       </c>
-      <c r="I18" t="n">
-        <v>22</v>
-      </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1289,22 +1289,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,684</t>
+          <t>0,529</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,619</t>
+          <t>0,857</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,650</t>
+          <t>0,655</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,899</t>
+          <t>0,605</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1318,13 +1318,13 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,684</t>
+          <t>0,529</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,619</t>
+          <t>0,857</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,650</t>
+          <t>0,655</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,899</t>
+          <t>0,605</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1364,13 +1364,13 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1381,22 +1381,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,367</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,727</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,537</t>
+          <t>0,593</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,367</t>
+          <t>0,963</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1410,13 +1410,13 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I21" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1427,17 +1427,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,125</t>
+          <t>0,182</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,133</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1456,13 +1456,13 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1473,22 +1473,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,444</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,375</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0,320</t>
+          <t>0,462</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,831</t>
+          <t>0,733</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1502,13 +1502,13 @@
         </is>
       </c>
       <c r="H23" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
         <v>4</v>
       </c>
-      <c r="I23" t="n">
-        <v>5</v>
-      </c>
       <c r="J23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1519,22 +1519,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,100</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,927</t>
+          <t>0,869</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,839</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>0,154</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,121</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1643,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J26" t="n">
         <v>9</v>
@@ -1657,24 +1657,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>0,667</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0,250</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0,364</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0,625</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0,769</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0,625</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>8,000</t>
@@ -1686,13 +1686,13 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1703,17 +1703,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,077</t>
+          <t>0,130</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,118</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>20</v>
+      </c>
+      <c r="J28" t="n">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1887,17 +1887,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,083</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1916,13 +1916,13 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,733</t>
+          <t>0,688</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0,846</t>
+          <t>0,815</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0,733</t>
+          <t>0,688</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1965,7 +1965,7 @@
         <v>11</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
         <v>7</v>
@@ -2025,22 +2025,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>0,333</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0,143</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0,200</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>1,000</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0,143</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0,250</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0,143</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
         <v>6</v>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,300</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0,182</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2100,13 +2100,13 @@
         </is>
       </c>
       <c r="H36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7</v>
+      </c>
+      <c r="J36" t="n">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,182</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0,133</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,273</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2146,13 +2146,13 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -2163,17 +2163,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2192,13 +2192,13 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -2214,17 +2214,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2255,22 +2255,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>0,143</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0,250</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>0,143</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0,143</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0,936</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2287,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>6</v>
@@ -2306,17 +2306,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2330,13 +2330,13 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2403,12 +2403,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0,931</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>5</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>2</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0,444</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2563,7 +2563,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2577,22 +2577,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2606,13 +2606,13 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2623,22 +2623,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2652,13 +2652,13 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,205</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>2</v>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0,118</t>
+          <t>0,259</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3003,17 +3003,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3032,13 +3032,13 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>5</v>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0,220</t>
+          <t>0,463</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3274,53 +3274,47 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Closed Spring</t>
+          <t>closed spring</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3617,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -4354,22 +4348,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,238</t>
+          <t>0,303</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,585</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,389</t>
+          <t>0,499</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,830</t>
+          <t>0,848</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4441,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
